--- a/test_data/installation/safety_factors.xlsx
+++ b/test_data/installation/safety_factors.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\test_data\installation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="port_sf" sheetId="4" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Terminal area [m^2]</t>
   </si>
@@ -84,12 +89,6 @@
   </si>
   <si>
     <t>Turntable loading [t]</t>
-  </si>
-  <si>
-    <t>Dredge depth [m]</t>
-  </si>
-  <si>
-    <t>Turntable outer diameter [m]</t>
   </si>
   <si>
     <t>AH winch rated pull [t]</t>
@@ -182,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,27 +654,27 @@
       <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="17" customWidth="1"/>
+    <col min="2" max="4" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>0</v>
       </c>
@@ -687,7 +686,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -706,34 +705,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="4" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>0</v>
       </c>
@@ -745,7 +744,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -757,7 +756,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -769,7 +768,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -781,7 +780,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -793,7 +792,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -805,95 +804,71 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="20">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,45 +879,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>0.2</v>
@@ -951,12 +926,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -968,15 +943,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -985,15 +960,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <v>0.2</v>
@@ -1002,15 +977,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>0.2</v>
@@ -1019,15 +994,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>0.2</v>
@@ -1036,12 +1011,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1053,15 +1028,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1070,15 +1045,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1087,15 +1062,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1104,15 +1079,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1121,15 +1096,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1138,15 +1113,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="52" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1155,15 +1130,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1172,15 +1147,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
